--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="动态代理模式" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +26,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>一，JDK动态代理模式的关键点：</t>
+  </si>
+  <si>
+    <t>1，被代理对象要实现某一接口(JDK的动态代理实际上是实现的对接口的代理)</t>
+  </si>
+  <si>
+    <t>2，在调用代理对象的invoke方法时，使用被代理对象。</t>
+  </si>
+  <si>
+    <t>二，Cglib动态代理关键点：</t>
+  </si>
+  <si>
+    <t>1，设置enhancer对象的父类为被代理对象</t>
+  </si>
+  <si>
+    <t>2，设置enhancer对象的callback为代理对象</t>
+  </si>
+  <si>
+    <t>3，执行代理对象的intercept方法时，里面调用proxy.invokeSuper方法</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -189,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -515,7 +545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,16 +569,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -557,90 +587,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,48 +987,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -7,7 +7,9 @@
     <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="动态代理模式" sheetId="1" r:id="rId1"/>
+    <sheet name="23种设计模式" sheetId="2" r:id="rId1"/>
+    <sheet name="2.1 适配器模式" sheetId="4" r:id="rId2"/>
+    <sheet name="2.3 动态代理模式" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+  <si>
+    <r>
+      <t>一，创建型模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Creational Patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）主要关注如何创建对象，以及何时创建对象。这类模式包括：</t>
+    </r>
+  </si>
+  <si>
+    <t>工厂方法模式</t>
+  </si>
+  <si>
+    <t>抽象工厂模式</t>
+  </si>
+  <si>
+    <t>单例模式      关键点：使用内部枚举类</t>
+  </si>
+  <si>
+    <t>建造者模式   关键点：return this</t>
+  </si>
+  <si>
+    <t>原型模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   关键点：实现cloneable接口，重写clone方法  适合用需要新建大量对象</t>
+  </si>
+  <si>
+    <r>
+      <t>二，结构型模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Structural Patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）关注类和对象的组合，以及如何使用这些组合来创建更大的结构。这类模式包括：</t>
+    </r>
+  </si>
+  <si>
+    <t>适配器模式  关键点：实现待适配接口，持有功能类的引用。</t>
+  </si>
+  <si>
+    <t>装饰器模式</t>
+  </si>
+  <si>
+    <t>代理模式</t>
+  </si>
+  <si>
+    <t>外观模式</t>
+  </si>
+  <si>
+    <t>桥接模式</t>
+  </si>
+  <si>
+    <t>组合模式</t>
+  </si>
+  <si>
+    <t>享元模式</t>
+  </si>
+  <si>
+    <r>
+      <t>三，行为型模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Behavioral Patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）关注类和对象之间的交互以及这些交互如何影响对象的行为。这类模式包括：</t>
+    </r>
+  </si>
+  <si>
+    <t>策略模式</t>
+  </si>
+  <si>
+    <t>模板方法模式</t>
+  </si>
+  <si>
+    <t>观察者模式</t>
+  </si>
+  <si>
+    <t>迭代器模式</t>
+  </si>
+  <si>
+    <t>责任链模式</t>
+  </si>
+  <si>
+    <t>命令模式</t>
+  </si>
+  <si>
+    <t>备忘录模式</t>
+  </si>
+  <si>
+    <t>状态模式</t>
+  </si>
+  <si>
+    <t>访问者模式</t>
+  </si>
+  <si>
+    <t>中介者模式</t>
+  </si>
+  <si>
+    <t>解释器模式</t>
+  </si>
+  <si>
+    <t>目标接口（Target）：客户端所期望的接口，适配器类实现了该接口。</t>
+  </si>
+  <si>
+    <t>适配者（Adaptee）：需要被适配的类，它包含了客户端所需的功能，但与目标接口不兼容。</t>
+  </si>
+  <si>
+    <t>适配器（Adapter）：适配器类，它实现了目标接口，并在内部持有一个适配者对象。适配器类将适配者对象的接口转换为目标接口，使得客户端能够通过适配器对象来使用适配者对象的功能。</t>
+  </si>
+  <si>
+    <t>适配器模式在实际开发中经常用于集成不同的系统、框架或第三方库，以便使它们能够协同工作。它也可以用于重用现有的类，而不需要修改其原有的接口。</t>
+  </si>
+  <si>
+    <t>public interface MediaPlayer {</t>
+  </si>
+  <si>
+    <t>//客户已有的接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void playAudio(String filename);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public class AdvancedMediaPlayer {</t>
+  </si>
+  <si>
+    <t>//客户已有的功能类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void playMp3(String filename) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Playing MP3 file: " + filename);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void playFlac(String filename) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Playing FLAC file: " + filename);</t>
+  </si>
+  <si>
+    <t>public class MediaAdapter implements MediaPlayer {</t>
+  </si>
+  <si>
+    <t>//需要实现的适配器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private AdvancedMediaPlayer advancedMediaPlayer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public MediaAdapter() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        advancedMediaPlayer = new AdvancedMediaPlayer();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void playAudio(String filename) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        advancedMediaPlayer.playMp3(filename);</t>
+  </si>
+  <si>
+    <t>public class Client {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t>//客户端代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MediaPlayer mediaPlayer = new MediaAdapter();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mediaPlayer.playAudio("song.mp3");</t>
+  </si>
   <si>
     <t>一，JDK动态代理模式的关键点：</t>
   </si>
@@ -60,13 +317,45 @@
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 N-B"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 N-B"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -212,6 +501,18 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -228,6 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,12 +668,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,141 +840,162 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,9 +1309,692 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="7">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="7">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="7">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="7">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="15" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="15" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="15" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="15" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="15" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" ht="15" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" ht="15" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" ht="15" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" ht="15" spans="1:8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" ht="15" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" ht="15" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" ht="15" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" ht="15" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" ht="15" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" ht="15" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" ht="15" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" ht="15" spans="1:8">
+      <c r="A29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" ht="15" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" ht="15" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" ht="15" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" ht="15" spans="1:8">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" ht="15" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" ht="15" spans="1:9">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:8">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" ht="15" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" ht="15" spans="1:8">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" ht="15" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" ht="15.75" spans="1:8">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1000,37 +2005,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="23种设计模式" sheetId="2" r:id="rId1"/>
     <sheet name="2.1 适配器模式" sheetId="4" r:id="rId2"/>
-    <sheet name="2.3 动态代理模式" sheetId="1" r:id="rId3"/>
+    <sheet name="2.2 装饰器模式" sheetId="5" r:id="rId3"/>
+    <sheet name="2.3 动态代理模式" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +30,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>一，创建型模式</t>
     </r>
     <r>
@@ -82,6 +90,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>二，结构型模式</t>
     </r>
     <r>
@@ -116,7 +131,10 @@
     <t>适配器模式  关键点：实现待适配接口，持有功能类的引用。</t>
   </si>
   <si>
-    <t>装饰器模式</t>
+    <t>装饰器模式  关键点：和代理模式在结构上一样。区别在于逻辑上装饰器模式是动态添加功能，代理模式是增加固定的处理。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 装饰器由于可能会添加多个功能，因此一般会有一个抽象装饰器。</t>
   </si>
   <si>
     <t>代理模式</t>
@@ -135,6 +153,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>三，行为型模式</t>
     </r>
     <r>
@@ -284,6 +309,84 @@
   </si>
   <si>
     <t xml:space="preserve">        mediaPlayer.playAudio("song.mp3");</t>
+  </si>
+  <si>
+    <t>public interface Component {</t>
+  </si>
+  <si>
+    <t>//具体装饰器A</t>
+  </si>
+  <si>
+    <t>//客户端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void operation();</t>
+  </si>
+  <si>
+    <t>public class ConcreteDecoratorA extends Decorator {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public ConcreteDecoratorA(Component component) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super(component);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component component = new ConcreteComponent();</t>
+  </si>
+  <si>
+    <t>public class ConcreteComponent implements Component {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component decoratorA = new ConcreteDecoratorA(component);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component decoratorB = new ConcreteDecoratorB(decoratorA);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void operation() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        decoratorB.operation();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("具体组件的操作");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("装饰器 A 的操作");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super.operation();</t>
+  </si>
+  <si>
+    <t>//抽象装饰器</t>
+  </si>
+  <si>
+    <t>public abstract class Decorator implements Component {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected Component component;</t>
+  </si>
+  <si>
+    <t>//具体装饰器B</t>
+  </si>
+  <si>
+    <t>public class ConcreteDecoratorB extends Decorator {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Decorator(Component component) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public ConcreteDecoratorB(Component component) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.component = component;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        component.operation();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("装饰器 B 的操作");</t>
   </si>
   <si>
     <t>一，JDK动态代理模式的关键点：</t>
@@ -970,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,9 +1081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1309,62 +1409,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1372,163 +1472,169 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="7">
+    <row r="13" spans="2:5">
+      <c r="B13" s="6"/>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="7">
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="6">
         <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="7">
-        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="7">
-        <v>6</v>
+      <c r="B16" s="6">
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="7">
-        <v>7</v>
+      <c r="B17" s="6">
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="6">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="7">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="6">
         <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7">
-        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="7">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="7">
-        <v>4</v>
+      <c r="B24" s="6">
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="7">
-        <v>5</v>
+      <c r="B25" s="6">
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="7">
-        <v>6</v>
+      <c r="B26" s="6">
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="7">
-        <v>7</v>
+      <c r="B27" s="6">
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="7">
-        <v>8</v>
+      <c r="B28" s="6">
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="7">
-        <v>9</v>
+      <c r="B29" s="6">
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="7">
-        <v>10</v>
+      <c r="B30" s="6">
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="7">
-        <v>11</v>
+      <c r="B31" s="6">
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="6">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1542,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1553,435 +1659,435 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" ht="15" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" ht="15" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" ht="15" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" ht="15" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" ht="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" ht="15" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" ht="15" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" ht="15" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" ht="15" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" ht="15" spans="1:8">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" ht="15" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" ht="15" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" ht="15" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" ht="15" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" ht="15" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" ht="15" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" ht="15" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" ht="15" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" ht="15" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" ht="15" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" ht="15" spans="1:8">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" ht="15" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" ht="15" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" ht="15" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" ht="15" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" ht="15" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" ht="15.75" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1990,6 +2096,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="10:18">
+      <c r="J4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A8"/>
@@ -2005,37 +2332,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -4,13 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="23种设计模式" sheetId="2" r:id="rId1"/>
     <sheet name="2.1 适配器模式" sheetId="4" r:id="rId2"/>
     <sheet name="2.2 装饰器模式" sheetId="5" r:id="rId3"/>
     <sheet name="2.3 动态代理模式" sheetId="1" r:id="rId4"/>
+    <sheet name="2.4 外观模式" sheetId="6" r:id="rId5"/>
+    <sheet name="2.5 桥接模式" sheetId="7" r:id="rId6"/>
+    <sheet name="2.6 组合模式" sheetId="8" r:id="rId7"/>
+    <sheet name="3.1 策略模式" sheetId="9" r:id="rId8"/>
+    <sheet name="3.2 模板方法模式" sheetId="10" r:id="rId9"/>
+    <sheet name="3.3 观察者模式" sheetId="11" r:id="rId10"/>
+    <sheet name="3.4 迭代器模式" sheetId="12" r:id="rId11"/>
+    <sheet name="3.5 责任链模式" sheetId="13" r:id="rId12"/>
+    <sheet name="3.6 命令模式" sheetId="14" r:id="rId13"/>
+    <sheet name="3.7 备忘录模式" sheetId="15" r:id="rId14"/>
+    <sheet name="3.8 状态模式" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="455">
   <si>
     <r>
       <rPr>
@@ -80,13 +91,10 @@
     <t>单例模式      关键点：使用内部枚举类</t>
   </si>
   <si>
-    <t>建造者模式   关键点：return this</t>
-  </si>
-  <si>
-    <t>原型模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   关键点：实现cloneable接口，重写clone方法  适合用需要新建大量对象</t>
+    <t>建造者模式    关键点：return this</t>
+  </si>
+  <si>
+    <t>原型模式      关键点：实现cloneable接口，重写clone方法  适合用需要新建大量对象</t>
   </si>
   <si>
     <r>
@@ -128,28 +136,31 @@
     </r>
   </si>
   <si>
-    <t>适配器模式  关键点：实现待适配接口，持有功能类的引用。</t>
-  </si>
-  <si>
-    <t>装饰器模式  关键点：和代理模式在结构上一样。区别在于逻辑上装饰器模式是动态添加功能，代理模式是增加固定的处理。</t>
+    <t>适配器模式    关键点：实现待适配接口，持有功能类的引用。</t>
+  </si>
+  <si>
+    <t>装饰器模式    关键点：和代理模式在结构上一样。区别在于逻辑上装饰器模式是动态添加功能，代理模式是增加固定的处理。</t>
   </si>
   <si>
     <t xml:space="preserve"> 装饰器由于可能会添加多个功能，因此一般会有一个抽象装饰器。</t>
   </si>
   <si>
-    <t>代理模式</t>
-  </si>
-  <si>
-    <t>外观模式</t>
-  </si>
-  <si>
-    <t>桥接模式</t>
-  </si>
-  <si>
-    <t>组合模式</t>
-  </si>
-  <si>
-    <t>享元模式</t>
+    <t>代理模式      关键点：参考2.3</t>
+  </si>
+  <si>
+    <t>外观模式      关键点：有一个类能整合所有信息。</t>
+  </si>
+  <si>
+    <t>桥接模式      关键点：在有两个独立的变化维度，其中一个持有另一个的引用。</t>
+  </si>
+  <si>
+    <t>组合模式      关键点：典型应用是构建树状结构。包括叶子节点和组合节点，两者都实现同一接口</t>
+  </si>
+  <si>
+    <t>享元模式      关键点：就是将创建的对象放在一个缓存池中，每次需要的时候去池里面取，减少对象的创建及销毁。（用了spring的话基本上用不到了）</t>
+  </si>
+  <si>
+    <t>过滤器模式    关键点：通常情况下过滤器返回类型为boolean</t>
   </si>
   <si>
     <r>
@@ -191,34 +202,34 @@
     </r>
   </si>
   <si>
-    <t>策略模式</t>
-  </si>
-  <si>
-    <t>模板方法模式</t>
-  </si>
-  <si>
-    <t>观察者模式</t>
-  </si>
-  <si>
-    <t>迭代器模式</t>
-  </si>
-  <si>
-    <t>责任链模式</t>
-  </si>
-  <si>
-    <t>命令模式</t>
-  </si>
-  <si>
-    <t>备忘录模式</t>
-  </si>
-  <si>
-    <t>状态模式</t>
-  </si>
-  <si>
-    <t>访问者模式</t>
-  </si>
-  <si>
-    <t>中介者模式</t>
+    <t>策略模式      关键点：典型的多态，一个接口，多个实现，调用的时候用接口调用，传入不同实现，就能实现不同调用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模板方法模式  关键点：典型的多态，只是抽象方法的调用在接口或抽象类中。 </t>
+  </si>
+  <si>
+    <t>观察者模式    关键点：被观察者持有一组观察者的引用。注册时，将观察者添加到被观察者中。更新时，调用观察者的相关方法。</t>
+  </si>
+  <si>
+    <t>迭代器模式    关键点：hasNext()和next()</t>
+  </si>
+  <si>
+    <t>责任链模式    关键点：定义一组处理器，相互链接，每个处理器只处理自己负责的请求。</t>
+  </si>
+  <si>
+    <t>命令模式      关键点：执行者中保存一个map，key是命令，value是对应的对象，执行命令时就是调用该对象的方法。</t>
+  </si>
+  <si>
+    <t>备忘录模式    关键点：包含原始对象、备忘录对象和负责管理备忘录对象的对象。注意备忘的应该是实际值而不是指针。</t>
+  </si>
+  <si>
+    <t>状态模式      关键点：将状态封装成独立的状态类。</t>
+  </si>
+  <si>
+    <t>访问者模式    关键点：被访问对象持有一组待访问节点。且节点是可以任意添加的。</t>
+  </si>
+  <si>
+    <t>中介者模式    关键点：通信实体包含一个中介者。而一个中介者包含一组通信实例，在中介者中定义通信逻辑。</t>
   </si>
   <si>
     <t>解释器模式</t>
@@ -408,6 +419,1101 @@
   </si>
   <si>
     <t>3，执行代理对象的intercept方法时，里面调用proxy.invokeSuper方法</t>
+  </si>
+  <si>
+    <t>class CPU {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void processData() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("正在处理数据...");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Memory {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void load() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("正在加载内存...");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class HardDrive {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void readData() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("正在读取硬盘数据...");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 外观类</t>
+  </si>
+  <si>
+    <t>class ComputerFacade {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private CPU cpu;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Memory memory;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private HardDrive hardDrive;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public ComputerFacade() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cpu = new CPU();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        memory = new Memory();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hardDrive = new HardDrive();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void start() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("启动计算机...");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cpu.processData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        memory.load();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hardDrive.readData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("计算机启动完毕！");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 客户端代码</t>
+  </si>
+  <si>
+    <t>public class FacadePatternDemo {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ComputerFacade computer = new ComputerFacade();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        computer.start();</t>
+  </si>
+  <si>
+    <t>// 首先，我们定义一个 Color 接口，它表示颜色：</t>
+  </si>
+  <si>
+    <t>public interface Color {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void applyColor();</t>
+  </si>
+  <si>
+    <t>// 然后，我们定义一个 Shape 抽象类，它包含了一个 Color 对象：</t>
+  </si>
+  <si>
+    <t>public abstract class Shape {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected Color color;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Shape(Color color) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.color = color;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public abstract void applyColor();</t>
+  </si>
+  <si>
+    <t>// 接下来，我们定义两个实现了 Color 接口的具体类：</t>
+  </si>
+  <si>
+    <t>public class Red implements Color {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void applyColor() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Applying red color");</t>
+  </si>
+  <si>
+    <t>public class Blue implements Color {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    System.out.println("Applying blue color");</t>
+  </si>
+  <si>
+    <t>// 最后，我们定义两个实现了 Shape 抽象类的具体类：</t>
+  </si>
+  <si>
+    <t>public class Circle extends Shape {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Circle(Color color) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super(color);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.print("Circle applying color: ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        color.applyColor();</t>
+  </si>
+  <si>
+    <t>public class Square extends Shape {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Square(Color color) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.print("Square applying color: ");</t>
+  </si>
+  <si>
+    <t>// 现在，我们可以使用这些类来创建出对应的对象并调用它们的方法：</t>
+  </si>
+  <si>
+    <t>public class Test {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Color blue = new Blue();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Shape square = new Square(new Red());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Shape circle = new Circle(blue);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        square.applyColor();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        circle.applyColor();</t>
+  </si>
+  <si>
+    <t>public interface IComponent {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   void display();</t>
+  </si>
+  <si>
+    <t>// Component.java</t>
+  </si>
+  <si>
+    <t>public abstract class Component implements IComponent {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected String name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Component(String name) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.name = name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public abstract void add(IComponent component);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public abstract void remove(IComponent component);</t>
+  </si>
+  <si>
+    <t>// Composite.java</t>
+  </si>
+  <si>
+    <t>public class Composite extends Component {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private List&lt;IComponent&gt; children = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Composite(String name) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super(name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void add(IComponent component) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        children.add(component);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void remove(IComponent component) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        children.remove(component);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void display() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Composite: " + name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (IComponent component : children) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            component.display();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t>// Leaf.java</t>
+  </si>
+  <si>
+    <t>public class Leaf implements IComponent {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Leaf(String name) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Leaf: " + name);</t>
+  </si>
+  <si>
+    <t>// Client.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component root = new Composite("root");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component branch1 = new Composite("branch1");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component branch2 = new Composite("branch2");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component leaf1 = new Leaf("leaf1");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component leaf2 = new Leaf("leaf2");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Component leaf3 = new Leaf("leaf3");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        root.add(branch1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        root.add(branch2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        branch1.add(leaf1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        branch2.add(leaf2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        branch2.add(leaf3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        root.display();</t>
+  </si>
+  <si>
+    <t>interface PaymentStrategy {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void pay(double amount);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class CreditCardPayment implements PaymentStrategy {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String cardNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String cvv;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String expiryDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public CreditCardPayment(String cardNumber, String cvv, String expiryDate) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.cardNumber = cardNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.cvv = cvv;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.expiryDate = expiryDate;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void pay(double amount) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Paying " + amount + " using credit card.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class PayPalPayment implements PaymentStrategy {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String email;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String password;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public PayPalPayment(String email, String password) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.email = email;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.password = password;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Paying " + amount + " using PayPal.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class CashPayment implements PaymentStrategy {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void pay(double amount) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Paying " + amount + " using cash.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class PaymentProcessor {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private PaymentStrategy strategy;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public PaymentProcessor(PaymentStrategy strategy) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.strategy = strategy;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void setStrategy(PaymentStrategy strategy) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void processPayment(double amount) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        strategy.pay(amount);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public class PaymentSystem {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        PaymentProcessor processor = new PaymentProcessor(new CreditCardPayment("1234 5678 9012 3456", "123", "12/23"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        processor.processPayment(100.0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         processor.setStrategy(new PayPalPayment("example@example.com", "password"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        processor.processPayment(50.0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         processor.setStrategy(new CashPayment());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        processor.processPayment(25.0);</t>
+  </si>
+  <si>
+    <t>abstract class Game {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    abstract void initialize();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    abstract void startPlay();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    abstract void endPlay();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     // 模板方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public final void play() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 初始化游戏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        initialize();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // 开始游戏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        startPlay();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // 结束游戏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        endPlay();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Cricket extends Game {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void endPlay() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Cricket Game Finished!");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void initialize() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Cricket Game Initialized! Start playing.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void startPlay() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Cricket Game Started. Enjoy the game!");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Football extends Game {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Football Game Finished!");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Football Game Initialized! Start playing.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Football Game Started. Enjoy the game!");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public class TemplatePatternDemo {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Game game = new Cricket();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        game.play();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         game = new Football();</t>
+  </si>
+  <si>
+    <t>// 抽象主题接口</t>
+  </si>
+  <si>
+    <t>interface Subject {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void registerObserver(Observer observer);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void removeObserver(Observer observer);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void notifyObservers();</t>
+  </si>
+  <si>
+    <t>// 具体主题实现类</t>
+  </si>
+  <si>
+    <t>class WeatherStation implements Subject {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private List&lt;Observer&gt; observers;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private float temperature;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private float humidity;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private float pressure;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public WeatherStation() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.observers = new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void registerObserver(Observer observer) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        observers.add(observer);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void removeObserver(Observer observer) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        observers.remove(observer);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void notifyObservers() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("&gt;&gt; 通知所有观察者 &lt;&lt;");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for (Observer observer : observers) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("------观察者:" + observer.name() + "-----------");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            observer.update(temperature, humidity, pressure);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void setMeasurements(float temperature, float humidity, float pressure) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.temperature = temperature;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.humidity = humidity;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.pressure = pressure;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        notifyObservers();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 抽象观察者接口</t>
+  </si>
+  <si>
+    <t>interface Observer {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void update(float temperature, float humidity, float pressure);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String name();</t>
+  </si>
+  <si>
+    <t>// 具体观察者实现类</t>
+  </si>
+  <si>
+    <t>class Display implements Observer {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String name() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return this.name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Display(String name){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void update(float temperature, float humidity, float pressure) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        display();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Temperature: " + temperature);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Humidity: " + humidity);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Pressure: " + pressure);</t>
+  </si>
+  <si>
+    <t>// 使用观察者模式实现气象站</t>
+  </si>
+  <si>
+    <t>public class Main {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WeatherStation weatherStation = new WeatherStation();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Display display1 = new Display("01");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Display display2 = new Display("02");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        weatherStation.registerObserver(display1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        weatherStation.registerObserver(display2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        weatherStation.setMeasurements(25.0f, 60.0f, 1013.0f);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        weatherStation.removeObserver(display2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        weatherStation.setMeasurements(26.0f, 65.0f, 1012.0f);</t>
+  </si>
+  <si>
+    <t>interface Iterator&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    boolean hasNext();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    T next();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 具体迭代器实现类</t>
+  </si>
+  <si>
+    <t>class ArrayIterator&lt;T&gt; implements Iterator&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private T[] array;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private int currentIndex;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public ArrayIterator(T[] array) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.array = array;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.currentIndex = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public boolean hasNext() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return currentIndex &lt; array.length;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public T next() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!hasNext()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            throw new NoSuchElementException();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        T element = array[currentIndex];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        currentIndex++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return element;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 使用迭代器遍历数组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Integer[] array = {1, 2, 3, 4, 5};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Iterator&lt;Integer&gt; iterator = new ArrayIterator&lt;&gt;(array);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        while (iterator.hasNext()) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println(iterator.next());</t>
+  </si>
+  <si>
+    <t>public interface Handler {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Handler setNextHandler(Handler nextHandler);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void handleRequest(Request request);</t>
+  </si>
+  <si>
+    <t>// 创建抽象处理器类</t>
+  </si>
+  <si>
+    <t>public abstract class AbstractHandler implements Handler {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Handler nextHandler;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Handler setNextHandler(Handler nextHandler) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.nextHandler = nextHandler;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return this.nextHandler;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Handler getNextHandler() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return nextHandler;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 创建具体的处理器类</t>
+  </si>
+  <si>
+    <t>public class ConcreteHandler1 extends AbstractHandler {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void handleRequest(Request request) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (request.getType().equals("Type1")) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("ConcreteHandler1 handles request " + request);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            getNextHandler().handleRequest(request);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public class ConcreteHandler2 extends AbstractHandler {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (request.getType().equals("Type2")) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("ConcreteHandler2 handles request " + request);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public class ConcreteHandler3 extends AbstractHandler {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (request.getType().equals("Type3")) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("ConcreteHandler3 handles request " + request);</t>
+  </si>
+  <si>
+    <t>// 创建请求类</t>
+  </si>
+  <si>
+    <t>public class Request {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String type;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Request(String type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.type = type;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String getType() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return type;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String toString() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return "Request [type=" + type + "]";</t>
+  </si>
+  <si>
+    <t>// 客户端代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Handler handler1 = new ConcreteHandler1();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Handler handler2 = new ConcreteHandler2();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Handler handler3 = new ConcreteHandler3();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        handler1.setNextHandler(handler2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .setNextHandler(handler3);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        handler1.handleRequest(new Request("Type1"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        handler1.handleRequest(new Request("Type2"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        handler1.handleRequest(new Request("Type3"));</t>
+  </si>
+  <si>
+    <t>interface Command {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void execute(String[] args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 定义具体命令</t>
+  </si>
+  <si>
+    <t>class CreateFileCommand implements Command {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void execute(String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 根据给定的名称和内容创建文件的代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("创建文件 : " + String.join(", ", args));</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class DeleteFileCommand implements Command {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 根据给定的名称删除文件的代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("删除文件 : "+String.join(",",args) );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 定义命令执行者</t>
+  </si>
+  <si>
+    <t>class CommandExecutor {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Map&lt;String, Command&gt; commands = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public CommandExecutor() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 将具体命令与命令名称关联起来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        commands.put("create", new CreateFileCommand());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        commands.put("delete", new DeleteFileCommand());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void executeCommand(String commandName, String[] args) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 查找对应的命令并执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Command command = commands.get(commandName);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (command != null) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            command.execute(args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println("Unknown command: " + commandName);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 使用命令执行者执行命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        CommandExecutor executor = new CommandExecutor();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        executor.executeCommand("create", new String[]{"file.txt", "Hello World!"});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        executor.executeCommand("delete", new String[]{"file.txt"});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        executor.executeCommand("unknown", new String[]{});</t>
+  </si>
+  <si>
+    <t>// Originator类表示原始对象，它包含需要保存的状态。</t>
+  </si>
+  <si>
+    <t>class Originator {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void setState(String state) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.state = state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public String getState() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     // createMemento()方法创建备忘录对象，并将当前状态保存到备忘录对象中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Memento createMemento() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return new Memento(state);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     // restore()方法用于从备忘录对象中恢复先前的状态。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void restore(Memento memento) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state = memento.getState();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // Memento类表示备忘录对象，它包含需要保存的状态。</t>
+  </si>
+  <si>
+    <t>class Memento {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public Memento(String state) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // Caretaker类负责管理备忘录对象，它包含一个Memento对象。</t>
+  </si>
+  <si>
+    <t>class Caretaker {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Memento memento;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void setMemento(Memento memento) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.memento = memento;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public Memento getMemento() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return memento;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public class MementoPatternDemo {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Originator originator = new Originator();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Caretaker caretaker = new Caretaker();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // 保存原始对象的状态到备忘录对象中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        originator.setState("State 1");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        caretaker.setMemento(originator.createMemento());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // 修改原始对象的状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        originator.setState("State 2");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // 从备忘录对象中恢复先前的状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        originator.restore(caretaker.getMemento());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         System.out.println("Current state: " + originator.getState());</t>
+  </si>
+  <si>
+    <t>interface State {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void handle();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 具体状态类1</t>
+  </si>
+  <si>
+    <t>class ConcreteState1 implements State {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void handle() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("ConcreteState1 is handling.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 具体状态类2</t>
+  </si>
+  <si>
+    <t>class ConcreteState2 implements State {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("ConcreteState2 is handling.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 环境类</t>
+  </si>
+  <si>
+    <t>class Context {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private State state;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void setState(State state) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void request() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state.handle();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // 使用状态模式实现的客户端代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Context context = new Context();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        State state1 = new ConcreteState1();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        State state2 = new ConcreteState2();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        context.setState(state1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        context.request();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        context.setState(state2);</t>
   </si>
 </sst>
 </file>
@@ -617,7 +1723,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,7 +1738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +2067,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,16 +2091,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -991,93 +2109,96 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1095,7 +2216,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,232 +2536,1924 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="7"/>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="7">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="7">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="7">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="7">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="7">
+        <v>10</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="7">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="6"/>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="6">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
+      <c r="A10" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="6">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="6">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="6">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="6">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="6">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="6">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="6">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="6">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
+      <c r="A21" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="L25:O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P41" sqref="H29:P41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1673,421 +4492,421 @@
       </c>
     </row>
     <row r="5" ht="15" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" ht="15" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" ht="15" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" ht="15" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" ht="15" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" ht="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" ht="15" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" ht="15" spans="1:8">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" ht="15" spans="1:8">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" ht="15" spans="1:9">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:8">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" ht="15" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" ht="15" spans="1:8">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" ht="15" spans="1:8">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" ht="15" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" ht="15" spans="1:8">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" ht="15" spans="1:8">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" ht="15" spans="1:8">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" ht="15" spans="1:8">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" ht="15" spans="1:8">
-      <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="A31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" ht="15" spans="1:8">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" ht="15" spans="1:8">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" ht="15" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" ht="15" spans="1:9">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" ht="15" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" ht="15" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" ht="15" spans="1:8">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" ht="15.75" spans="1:8">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2101,7 +4920,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2370,4 +5189,1421 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/设计模式.xlsx
+++ b/设计模式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="846"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="949"/>
   </bookViews>
   <sheets>
     <sheet name="23种设计模式" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="3.6 命令模式" sheetId="14" r:id="rId13"/>
     <sheet name="3.7 备忘录模式" sheetId="15" r:id="rId14"/>
     <sheet name="3.8 状态模式" sheetId="16" r:id="rId15"/>
+    <sheet name="3.10 中介者模式" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="498">
   <si>
     <r>
       <rPr>
@@ -232,7 +233,7 @@
     <t>中介者模式    关键点：通信实体包含一个中介者。而一个中介者包含一组通信实例，在中介者中定义通信逻辑。</t>
   </si>
   <si>
-    <t>解释器模式</t>
+    <t>解释器模式    关键点：生成表达式之后，表达式内部是自动递归调用的。</t>
   </si>
   <si>
     <t>目标接口（Target）：客户端所期望的接口，适配器类实现了该接口。</t>
@@ -1514,6 +1515,135 @@
   </si>
   <si>
     <t xml:space="preserve">        context.setState(state2);</t>
+  </si>
+  <si>
+    <t>// Mediator接口定义了send()方法，用于处理对象之间的交互。</t>
+  </si>
+  <si>
+    <t>interface Mediator {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void send(String message, Colleague colleague);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // Colleague抽象类表示对象，它包含一个Mediator对象，用于处理对象之间的通信。</t>
+  </si>
+  <si>
+    <t>abstract class Colleague {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected Mediator mediator;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public Colleague(Mediator mediator) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.mediator = mediator;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public abstract void receive(String message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public abstract void send(String message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // ConcreteColleague1和ConcreteColleague2是具体的对象实现类，它们实现了Colleague抽象类中的方法。</t>
+  </si>
+  <si>
+    <t>class ConcreteColleague1 extends Colleague {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public ConcreteColleague1(Mediator mediator) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        super(mediator);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void receive(String message) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Colleague1 received message: " + message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void send(String message) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Colleague1 sends message: " + message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mediator.send(message, this);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class ConcreteColleague2 extends Colleague {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public ConcreteColleague2(Mediator mediator) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Colleague2 received message: " + message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("Colleague2 sends message: " + message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // ConcreteMediator是具体的中介者实现类，它负责协调对象之间的通信。</t>
+  </si>
+  <si>
+    <t>class ConcreteMediator implements Mediator {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private ConcreteColleague1 colleague1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private ConcreteColleague2 colleague2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void setColleague1(ConcreteColleague1 colleague1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.colleague1 = colleague1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     public void setColleague2(ConcreteColleague2 colleague2) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.colleague2 = colleague2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void send(String message, Colleague colleague) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (colleague == colleague1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            colleague2.receive(message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            colleague1.receive(message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public class MediatorPatternDemo {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ConcreteMediator mediator = new ConcreteMediator();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ConcreteColleague1 colleague1 = new ConcreteColleague1(mediator);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ConcreteColleague2 colleague2 = new ConcreteColleague2(mediator);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         mediator.setColleague1(colleague1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mediator.setColleague2(colleague2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         colleague1.send("Hello, Colleague2.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        colleague2.send("Hello, Colleague1.");</t>
   </si>
 </sst>
 </file>
@@ -2539,7 +2669,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2767,7 +2897,7 @@
       <c r="B33" s="7">
         <v>11</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4453,6 +4583,386 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
